--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17568</v>
+        <v>17572.79729737419</v>
       </c>
       <c r="C2">
-        <v>37417</v>
+        <v>37492.19165552104</v>
       </c>
       <c r="D2">
-        <v>72864</v>
+        <v>73037.81439821956</v>
       </c>
       <c r="E2">
-        <v>110350</v>
+        <v>110553.1488376751</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>180482</v>
+        <v>180531.7646324224</v>
       </c>
       <c r="C3">
-        <v>334856</v>
+        <v>335706.1708952549</v>
       </c>
       <c r="D3">
-        <v>406640</v>
+        <v>407537.8372402679</v>
       </c>
       <c r="E3">
-        <v>452435</v>
+        <v>453519.3175182287</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19593</v>
+        <v>19605.67819354744</v>
       </c>
       <c r="C4">
-        <v>37213</v>
+        <v>37265.45449342443</v>
       </c>
       <c r="D4">
-        <v>59373</v>
+        <v>59525.38698290462</v>
       </c>
       <c r="E4">
-        <v>76895</v>
+        <v>77146.58170007616</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>105888</v>
+        <v>105920.1881086569</v>
       </c>
       <c r="C6">
-        <v>134688</v>
+        <v>135008.4585056588</v>
       </c>
       <c r="D6">
-        <v>124040</v>
+        <v>124284.6180696946</v>
       </c>
       <c r="E6">
-        <v>101706</v>
+        <v>101977.8290434767</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10945</v>
+        <v>10958.60998832631</v>
       </c>
       <c r="C7">
-        <v>21970</v>
+        <v>22006.77181678597</v>
       </c>
       <c r="D7">
-        <v>24233</v>
+        <v>24307.71823809589</v>
       </c>
       <c r="E7">
-        <v>26436</v>
+        <v>26511.39833502457</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>811780</v>
+        <v>811978.2298396495</v>
       </c>
       <c r="C9">
-        <v>1302228</v>
+        <v>1304953.204775028</v>
       </c>
       <c r="D9">
-        <v>1766004</v>
+        <v>1770277.589342636</v>
       </c>
       <c r="E9">
-        <v>2178000</v>
+        <v>2183717.935484926</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>900520</v>
+        <v>898896.620596268</v>
       </c>
       <c r="C12">
-        <v>1063194</v>
+        <v>1063696.378554818</v>
       </c>
       <c r="D12">
-        <v>947392</v>
+        <v>948319.3777886492</v>
       </c>
       <c r="E12">
-        <v>724540</v>
+        <v>725777.4233716547</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17572.79729737419</v>
+        <v>17524.9025578747</v>
       </c>
       <c r="C2">
-        <v>37492.19165552104</v>
+        <v>37410.86692199371</v>
       </c>
       <c r="D2">
-        <v>73037.81439821956</v>
+        <v>72913.72309724981</v>
       </c>
       <c r="E2">
-        <v>110553.1488376751</v>
+        <v>110381.739226258</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>180531.7646324224</v>
+        <v>180259.0863915369</v>
       </c>
       <c r="C3">
-        <v>335706.1708952549</v>
+        <v>335269.4101164092</v>
       </c>
       <c r="D3">
-        <v>407537.8372402679</v>
+        <v>406951.9580411431</v>
       </c>
       <c r="E3">
-        <v>453519.3175182287</v>
+        <v>452762.4076493848</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>19605.67819354744</v>
+        <v>19641.39459355674</v>
       </c>
       <c r="C4">
-        <v>37265.45449342443</v>
+        <v>37309.25327830233</v>
       </c>
       <c r="D4">
-        <v>59525.38698290462</v>
+        <v>59530.81393995079</v>
       </c>
       <c r="E4">
-        <v>77146.58170007616</v>
+        <v>77100.64445790013</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>105920.1881086569</v>
+        <v>105915.2473489126</v>
       </c>
       <c r="C6">
-        <v>135008.4585056588</v>
+        <v>134994.1277142083</v>
       </c>
       <c r="D6">
-        <v>124284.6180696946</v>
+        <v>124241.9419601992</v>
       </c>
       <c r="E6">
-        <v>101977.8290434767</v>
+        <v>101914.7166775866</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10958.60998832631</v>
+        <v>10982.03599266357</v>
       </c>
       <c r="C7">
-        <v>22006.77181678597</v>
+        <v>22033.83159260813</v>
       </c>
       <c r="D7">
-        <v>24307.71823809589</v>
+        <v>24308.01528049598</v>
       </c>
       <c r="E7">
-        <v>26511.39833502457</v>
+        <v>26486.76564533207</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>811978.2298396495</v>
+        <v>810072.9788328226</v>
       </c>
       <c r="C9">
-        <v>1304953.204775028</v>
+        <v>1302205.555769727</v>
       </c>
       <c r="D9">
-        <v>1770277.589342636</v>
+        <v>1766270.874992366</v>
       </c>
       <c r="E9">
-        <v>2183717.935484926</v>
+        <v>2178160.347173009</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>898896.620596268</v>
+        <v>867031.8717991085</v>
       </c>
       <c r="C12">
-        <v>1063696.378554818</v>
+        <v>1025243.928626533</v>
       </c>
       <c r="D12">
-        <v>948319.3777886492</v>
+        <v>921437.0399734324</v>
       </c>
       <c r="E12">
-        <v>725777.4233716547</v>
+        <v>712577.8037139757</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_Auto_Fiets.xlsx
@@ -391,7 +391,7 @@
         <v>17524.9025578747</v>
       </c>
       <c r="C2">
-        <v>37410.86692199371</v>
+        <v>37410.8669219937</v>
       </c>
       <c r="D2">
         <v>72913.72309724981</v>
@@ -428,10 +428,10 @@
         <v>37309.25327830233</v>
       </c>
       <c r="D4">
-        <v>59530.81393995079</v>
+        <v>59530.81393995077</v>
       </c>
       <c r="E4">
-        <v>77100.64445790013</v>
+        <v>77100.64445790015</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -479,10 +479,10 @@
         <v>22033.83159260813</v>
       </c>
       <c r="D7">
-        <v>24308.01528049598</v>
+        <v>24308.01528049599</v>
       </c>
       <c r="E7">
-        <v>26486.76564533207</v>
+        <v>26486.76564533206</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>810072.9788328226</v>
+        <v>810072.9788328224</v>
       </c>
       <c r="C9">
         <v>1302205.555769727</v>
